--- a/Evaluation/ComparisionWithOracle.xlsx
+++ b/Evaluation/ComparisionWithOracle.xlsx
@@ -454,7 +454,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,16 +675,16 @@
         <v>27</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -696,7 +696,7 @@
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" ref="D12:F12" si="0">SUM(D2:D11)</f>
@@ -704,11 +704,11 @@
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -720,7 +720,7 @@
       </c>
       <c r="D14" s="4">
         <f>(C12+D12)/(C12+D12+F12)</f>
-        <v>0.88571428571428568</v>
+        <v>0.85333333333333339</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -729,7 +729,7 @@
       </c>
       <c r="D15" s="4">
         <f>(C12+D12)/(C12+D12+E12)</f>
-        <v>0.83783783783783783</v>
+        <v>0.83116883116883122</v>
       </c>
     </row>
   </sheetData>
